--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245905290011884</v>
+        <v>0.300794</v>
       </c>
       <c r="H2">
-        <v>0.245905290011884</v>
+        <v>0.902382</v>
       </c>
       <c r="I2">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J2">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.12819809555384</v>
+        <v>3.76917</v>
       </c>
       <c r="N2">
-        <v>2.12819809555384</v>
+        <v>11.30751</v>
       </c>
       <c r="O2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="P2">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="Q2">
-        <v>0.5233351698899062</v>
+        <v>1.13374372098</v>
       </c>
       <c r="R2">
-        <v>0.5233351698899062</v>
+        <v>10.20369348882</v>
       </c>
       <c r="S2">
-        <v>4.956292109641661E-05</v>
+        <v>0.0001030776466982096</v>
       </c>
       <c r="T2">
-        <v>4.956292109641661E-05</v>
+        <v>0.0001030776466982096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245905290011884</v>
+        <v>0.300794</v>
       </c>
       <c r="H3">
-        <v>0.245905290011884</v>
+        <v>0.902382</v>
       </c>
       <c r="I3">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J3">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.29144960819239</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
-        <v>82.29144960819239</v>
+        <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094569</v>
       </c>
       <c r="P3">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094571</v>
       </c>
       <c r="Q3">
-        <v>20.23590278140089</v>
+        <v>24.80967059904667</v>
       </c>
       <c r="R3">
-        <v>20.23590278140089</v>
+        <v>223.28703539142</v>
       </c>
       <c r="S3">
-        <v>0.001916459107994442</v>
+        <v>0.002255644210754224</v>
       </c>
       <c r="T3">
-        <v>0.001916459107994442</v>
+        <v>0.002255644210754224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.245905290011884</v>
+        <v>0.300794</v>
       </c>
       <c r="H4">
-        <v>0.245905290011884</v>
+        <v>0.902382</v>
       </c>
       <c r="I4">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J4">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.467485982705433</v>
+        <v>0.5716056666666667</v>
       </c>
       <c r="N4">
-        <v>0.467485982705433</v>
+        <v>1.714817</v>
       </c>
       <c r="O4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860061</v>
       </c>
       <c r="P4">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860062</v>
       </c>
       <c r="Q4">
-        <v>0.1149572761536701</v>
+        <v>0.1719355548993333</v>
       </c>
       <c r="R4">
-        <v>0.1149572761536701</v>
+        <v>1.547419994094</v>
       </c>
       <c r="S4">
-        <v>1.08871307247742E-05</v>
+        <v>1.563202693414232E-05</v>
       </c>
       <c r="T4">
-        <v>1.08871307247742E-05</v>
+        <v>1.563202693414232E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.245905290011884</v>
+        <v>0.300794</v>
       </c>
       <c r="H5">
-        <v>0.245905290011884</v>
+        <v>0.902382</v>
       </c>
       <c r="I5">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J5">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.4013867063138</v>
+        <v>53.47143866666666</v>
       </c>
       <c r="N5">
-        <v>50.4013867063138</v>
+        <v>160.414316</v>
       </c>
       <c r="O5">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
       <c r="P5">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
       <c r="Q5">
-        <v>12.39396761501721</v>
+        <v>16.08388792230133</v>
       </c>
       <c r="R5">
-        <v>12.39396761501721</v>
+        <v>144.754991300712</v>
       </c>
       <c r="S5">
-        <v>0.001173781687754459</v>
+        <v>0.001462314001047352</v>
       </c>
       <c r="T5">
-        <v>0.001173781687754459</v>
+        <v>0.001462314001047352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.18835167720775</v>
+        <v>6.268658666666667</v>
       </c>
       <c r="H6">
-        <v>6.18835167720775</v>
+        <v>18.805976</v>
       </c>
       <c r="I6">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="J6">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.12819809555384</v>
+        <v>3.76917</v>
       </c>
       <c r="N6">
-        <v>2.12819809555384</v>
+        <v>11.30751</v>
       </c>
       <c r="O6">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="P6">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="Q6">
-        <v>13.17003825405095</v>
+        <v>23.62764018664</v>
       </c>
       <c r="R6">
-        <v>13.17003825405095</v>
+        <v>212.64876167976</v>
       </c>
       <c r="S6">
-        <v>0.001247280145455604</v>
+        <v>0.002148176437410108</v>
       </c>
       <c r="T6">
-        <v>0.001247280145455604</v>
+        <v>0.002148176437410108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.18835167720775</v>
+        <v>6.268658666666667</v>
       </c>
       <c r="H7">
-        <v>6.18835167720775</v>
+        <v>18.805976</v>
       </c>
       <c r="I7">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="J7">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.29144960819239</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
-        <v>82.29144960819239</v>
+        <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094569</v>
       </c>
       <c r="P7">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094571</v>
       </c>
       <c r="Q7">
-        <v>509.2484302027145</v>
+        <v>517.0427489173956</v>
       </c>
       <c r="R7">
-        <v>509.2484302027145</v>
+        <v>4653.384740256561</v>
       </c>
       <c r="S7">
-        <v>0.04822882392926286</v>
+        <v>0.04700846303669939</v>
       </c>
       <c r="T7">
-        <v>0.04822882392926286</v>
+        <v>0.04700846303669941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.18835167720775</v>
+        <v>6.268658666666667</v>
       </c>
       <c r="H8">
-        <v>6.18835167720775</v>
+        <v>18.805976</v>
       </c>
       <c r="I8">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="J8">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.467485982705433</v>
+        <v>0.5716056666666667</v>
       </c>
       <c r="N8">
-        <v>0.467485982705433</v>
+        <v>1.714817</v>
       </c>
       <c r="O8">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860061</v>
       </c>
       <c r="P8">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860062</v>
       </c>
       <c r="Q8">
-        <v>2.89296766514628</v>
+        <v>3.583200816265778</v>
       </c>
       <c r="R8">
-        <v>2.89296766514628</v>
+        <v>32.24880734639201</v>
       </c>
       <c r="S8">
-        <v>0.0002739810667650967</v>
+        <v>0.0003257772466148859</v>
       </c>
       <c r="T8">
-        <v>0.0002739810667650967</v>
+        <v>0.000325777246614886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.18835167720775</v>
+        <v>6.268658666666667</v>
       </c>
       <c r="H9">
-        <v>6.18835167720775</v>
+        <v>18.805976</v>
       </c>
       <c r="I9">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="J9">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.4013867063138</v>
+        <v>53.47143866666666</v>
       </c>
       <c r="N9">
-        <v>50.4013867063138</v>
+        <v>160.414316</v>
       </c>
       <c r="O9">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
       <c r="P9">
-        <v>0.3725474013611063</v>
+        <v>0.3811416689464024</v>
       </c>
       <c r="Q9">
-        <v>311.9015059576134</v>
+        <v>335.1941974169351</v>
       </c>
       <c r="R9">
-        <v>311.9015059576134</v>
+        <v>3016.747776752416</v>
       </c>
       <c r="S9">
-        <v>0.02953890856003956</v>
+        <v>0.03047516684526118</v>
       </c>
       <c r="T9">
-        <v>0.02953890856003956</v>
+        <v>0.03047516684526118</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>71.6137972243027</v>
+        <v>0.04541633333333334</v>
       </c>
       <c r="H10">
-        <v>71.6137972243027</v>
+        <v>0.136249</v>
       </c>
       <c r="I10">
-        <v>0.9175603154509068</v>
+        <v>0.0005792914339187697</v>
       </c>
       <c r="J10">
-        <v>0.9175603154509068</v>
+        <v>0.0005792914339187697</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.12819809555384</v>
+        <v>3.76917</v>
       </c>
       <c r="N10">
-        <v>2.12819809555384</v>
+        <v>11.30751</v>
       </c>
       <c r="O10">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="P10">
-        <v>0.01573081063622635</v>
+        <v>0.02686645020528053</v>
       </c>
       <c r="Q10">
-        <v>152.4083468681399</v>
+        <v>0.17118188111</v>
       </c>
       <c r="R10">
-        <v>152.4083468681399</v>
+        <v>1.54063692999</v>
       </c>
       <c r="S10">
-        <v>0.01443396756967433</v>
+        <v>1.556350446372418E-05</v>
       </c>
       <c r="T10">
-        <v>0.01443396756967433</v>
+        <v>1.556350446372418E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>71.6137972243027</v>
+        <v>0.04541633333333334</v>
       </c>
       <c r="H11">
-        <v>71.6137972243027</v>
+        <v>0.136249</v>
       </c>
       <c r="I11">
-        <v>0.9175603154509068</v>
+        <v>0.0005792914339187697</v>
       </c>
       <c r="J11">
-        <v>0.9175603154509068</v>
+        <v>0.0005792914339187697</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.29144960819239</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N11">
-        <v>82.29144960819239</v>
+        <v>247.44181</v>
       </c>
       <c r="O11">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094569</v>
       </c>
       <c r="P11">
-        <v>0.6082663138696941</v>
+        <v>0.5879175050094571</v>
       </c>
       <c r="Q11">
-        <v>5893.203185535014</v>
+        <v>3.745966574521111</v>
       </c>
       <c r="R11">
-        <v>5893.203185535014</v>
+        <v>33.71369917069001</v>
       </c>
       <c r="S11">
-        <v>0.5581210308324368</v>
+        <v>0.0003405755745028738</v>
       </c>
       <c r="T11">
-        <v>0.5581210308324368</v>
+        <v>0.0003405755745028738</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>71.6137972243027</v>
+        <v>0.04541633333333334</v>
       </c>
       <c r="H12">
-        <v>71.6137972243027</v>
+        <v>0.136249</v>
       </c>
       <c r="I12">
-        <v>0.9175603154509068</v>
+        <v>0.0005792914339187697</v>
       </c>
       <c r="J12">
-        <v>0.9175603154509068</v>
+        <v>0.0005792914339187697</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.467485982705433</v>
+        <v>0.5716056666666667</v>
       </c>
       <c r="N12">
-        <v>0.467485982705433</v>
+        <v>1.714817</v>
       </c>
       <c r="O12">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860061</v>
       </c>
       <c r="P12">
-        <v>0.003455474132973309</v>
+        <v>0.004074375838860062</v>
       </c>
       <c r="Q12">
-        <v>33.47844637067076</v>
+        <v>0.02596023349255556</v>
       </c>
       <c r="R12">
-        <v>33.47844637067076</v>
+        <v>0.233642101433</v>
       </c>
       <c r="S12">
-        <v>0.003170605935483438</v>
+        <v>2.360251022017235E-06</v>
       </c>
       <c r="T12">
-        <v>0.003170605935483438</v>
+        <v>2.360251022017236E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04541633333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.136249</v>
+      </c>
+      <c r="I13">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="J13">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>53.47143866666666</v>
+      </c>
+      <c r="N13">
+        <v>160.414316</v>
+      </c>
+      <c r="O13">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="P13">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="Q13">
+        <v>2.428476682298222</v>
+      </c>
+      <c r="R13">
+        <v>21.856290140684</v>
+      </c>
+      <c r="S13">
+        <v>0.0002207921039301545</v>
+      </c>
+      <c r="T13">
+        <v>0.0002207921039301545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H14">
+        <v>215.354797</v>
+      </c>
+      <c r="I14">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J14">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.76917</v>
+      </c>
+      <c r="N14">
+        <v>11.30751</v>
+      </c>
+      <c r="O14">
+        <v>0.02686645020528053</v>
+      </c>
+      <c r="P14">
+        <v>0.02686645020528053</v>
+      </c>
+      <c r="Q14">
+        <v>270.56961340283</v>
+      </c>
+      <c r="R14">
+        <v>2435.12652062547</v>
+      </c>
+      <c r="S14">
+        <v>0.02459963261670848</v>
+      </c>
+      <c r="T14">
+        <v>0.02459963261670849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H15">
+        <v>215.354797</v>
+      </c>
+      <c r="I15">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J15">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>82.48060333333333</v>
+      </c>
+      <c r="N15">
+        <v>247.44181</v>
+      </c>
+      <c r="O15">
+        <v>0.5879175050094569</v>
+      </c>
+      <c r="P15">
+        <v>0.5879175050094571</v>
+      </c>
+      <c r="Q15">
+        <v>5920.864529095841</v>
+      </c>
+      <c r="R15">
+        <v>53287.78076186257</v>
+      </c>
+      <c r="S15">
+        <v>0.5383128221875004</v>
+      </c>
+      <c r="T15">
+        <v>0.5383128221875005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>71.6137972243027</v>
-      </c>
-      <c r="H13">
-        <v>71.6137972243027</v>
-      </c>
-      <c r="I13">
-        <v>0.9175603154509068</v>
-      </c>
-      <c r="J13">
-        <v>0.9175603154509068</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>50.4013867063138</v>
-      </c>
-      <c r="N13">
-        <v>50.4013867063138</v>
-      </c>
-      <c r="O13">
-        <v>0.3725474013611063</v>
-      </c>
-      <c r="P13">
-        <v>0.3725474013611063</v>
-      </c>
-      <c r="Q13">
-        <v>3609.434687409622</v>
-      </c>
-      <c r="R13">
-        <v>3609.434687409622</v>
-      </c>
-      <c r="S13">
-        <v>0.3418347111133122</v>
-      </c>
-      <c r="T13">
-        <v>0.3418347111133122</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H16">
+        <v>215.354797</v>
+      </c>
+      <c r="I16">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J16">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5716056666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.714817</v>
+      </c>
+      <c r="O16">
+        <v>0.004074375838860061</v>
+      </c>
+      <c r="P16">
+        <v>0.004074375838860062</v>
+      </c>
+      <c r="Q16">
+        <v>41.03267410301655</v>
+      </c>
+      <c r="R16">
+        <v>369.294066927149</v>
+      </c>
+      <c r="S16">
+        <v>0.003730606314289016</v>
+      </c>
+      <c r="T16">
+        <v>0.003730606314289016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H17">
+        <v>215.354797</v>
+      </c>
+      <c r="I17">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J17">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>53.47143866666666</v>
+      </c>
+      <c r="N17">
+        <v>160.414316</v>
+      </c>
+      <c r="O17">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="P17">
+        <v>0.3811416689464024</v>
+      </c>
+      <c r="Q17">
+        <v>3838.44360645265</v>
+      </c>
+      <c r="R17">
+        <v>34545.99245807384</v>
+      </c>
+      <c r="S17">
+        <v>0.3489833959961637</v>
+      </c>
+      <c r="T17">
+        <v>0.3489833959961637</v>
       </c>
     </row>
   </sheetData>
